--- a/scan_results.xlsx
+++ b/scan_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>212.3.154.49</t>
+          <t>192.168.95.11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>212.3.154.50</t>
+          <t>192.168.95.12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212.3.154.51</t>
+          <t>192.168.95.13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>212.3.154.52</t>
+          <t>192.168.95.14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -521,24 +521,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212.3.154.53</t>
+          <t>192.168.95.15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[21, 22, 23]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{21: {'name': 'ftp', 'product': '', 'version': ''}, 22: {'name': 'ssh', 'product': '', 'version': ''}, 23: {'name': 'telnet', 'product': '', 'version': ''}}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>212.3.154.54</t>
+          <t>192.168.95.16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>212.3.154.55</t>
+          <t>192.168.95.17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -566,6 +566,142 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>192.168.95.18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>192.168.95.19</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>192.168.95.20</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[22, 135, 139, 445, 3389, 5357, 6000]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 135: {'name': 'msrpc', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 445: {'name': 'microsoft-ds', 'product': '', 'version': ''}, 3389: {'name': 'ms-wbt-server', 'product': '', 'version': ''}, 5357: {'name': 'wsdapi', 'product': '', 'version': ''}, 6000: {'name': 'X11', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>192.168.95.21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>192.168.95.22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>192.168.95.23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[8008, 8009, 8443]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{8008: {'name': 'http', 'product': '', 'version': ''}, 8009: {'name': 'ajp13', 'product': '', 'version': ''}, 8443: {'name': 'https-alt', 'product': '', 'version': ''}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>192.168.95.24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>192.168.95.25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[3389]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{3389: {'name': 'ms-wbt-server', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>

--- a/scan_results.xlsx
+++ b/scan_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192.168.95.11</t>
+          <t>192.168.95.17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>192.168.95.12</t>
+          <t>192.168.95.18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>192.168.95.13</t>
+          <t>192.168.95.19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -504,24 +504,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192.168.95.14</t>
+          <t>192.168.95.20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[22, 135, 139, 445, 3389, 5357]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 135: {'name': 'msrpc', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 445: {'name': 'microsoft-ds', 'product': '', 'version': ''}, 3389: {'name': 'ms-wbt-server', 'product': '', 'version': ''}, 5357: {'name': 'wsdapi', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>192.168.95.15</t>
+          <t>192.168.95.21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -532,176 +532,6 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>192.168.95.16</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>192.168.95.17</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>192.168.95.18</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>192.168.95.19</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>192.168.95.20</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[22, 135, 139, 445, 3389, 5357, 6000]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}, 135: {'name': 'msrpc', 'product': '', 'version': ''}, 139: {'name': 'netbios-ssn', 'product': '', 'version': ''}, 445: {'name': 'microsoft-ds', 'product': '', 'version': ''}, 3389: {'name': 'ms-wbt-server', 'product': '', 'version': ''}, 5357: {'name': 'wsdapi', 'product': '', 'version': ''}, 6000: {'name': 'X11', 'product': '', 'version': ''}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>192.168.95.21</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>192.168.95.22</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[22]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>{22: {'name': 'ssh', 'product': '', 'version': ''}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>192.168.95.23</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[8008, 8009, 8443]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>{8008: {'name': 'http', 'product': '', 'version': ''}, 8009: {'name': 'ajp13', 'product': '', 'version': ''}, 8443: {'name': 'https-alt', 'product': '', 'version': ''}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>192.168.95.24</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>192.168.95.25</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[3389]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>{3389: {'name': 'ms-wbt-server', 'product': '', 'version': ''}}</t>
         </is>
       </c>
     </row>
